--- a/Assets/Test Data Visualization/Data Visualization.xlsx
+++ b/Assets/Test Data Visualization/Data Visualization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AtomicAnnie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AtomicAnnie\Documents\GitHub\Assignment-2\Assets\Test Data Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE0B70-C220-4AC8-B6EA-50078F4C129A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B1E4B6-C66A-44D1-A1A6-98F96DE82405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,25 +800,25 @@
                   <c:v>0.82110914499999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.99628452899999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.126309113</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.61421179199999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48274968499999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99628452899999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.70358527400000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.77995104199999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48274968499999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.76154904599999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.126309113</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.77995104199999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.74369140499999997</c:v>
@@ -929,25 +929,25 @@
                   <c:v>1.000319373</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.1500800289999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2697600090000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.94633862099999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71698271700000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1500800289999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.0405962</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.0564580750000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71698271700000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.78188845399999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2697600090000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0564580750000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.037904838</c:v>
@@ -2073,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="88" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2238,10 +2238,10 @@
         <v>4.3923174227787607</v>
       </c>
       <c r="G18">
-        <v>0.61421179199999998</v>
+        <v>0.99628452899999997</v>
       </c>
       <c r="H18">
-        <v>0.94633862099999999</v>
+        <v>1.1500800289999999</v>
       </c>
     </row>
     <row r="19" spans="6:8">
@@ -2250,10 +2250,10 @@
         <v>4.9541963103868758</v>
       </c>
       <c r="G19">
-        <v>0.48274968499999998</v>
+        <v>1.126309113</v>
       </c>
       <c r="H19">
-        <v>0.71698271700000005</v>
+        <v>1.2697600090000001</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -2262,10 +2262,10 @@
         <v>2.5849625007211561</v>
       </c>
       <c r="G20">
-        <v>0.99628452899999997</v>
+        <v>0.61421179199999998</v>
       </c>
       <c r="H20">
-        <v>1.1500800289999999</v>
+        <v>0.94633862099999999</v>
       </c>
     </row>
     <row r="21" spans="6:8">
@@ -2286,10 +2286,10 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <v>0.76154904599999995</v>
+        <v>0.77995104199999998</v>
       </c>
       <c r="H22">
-        <v>0.78188845399999996</v>
+        <v>1.0564580750000001</v>
       </c>
     </row>
     <row r="23" spans="6:8">
@@ -2298,10 +2298,10 @@
         <v>2.1154772174199361</v>
       </c>
       <c r="G23">
-        <v>1.126309113</v>
+        <v>0.48274968499999998</v>
       </c>
       <c r="H23">
-        <v>1.2697600090000001</v>
+        <v>0.71698271700000005</v>
       </c>
     </row>
     <row r="24" spans="6:8">
@@ -2310,10 +2310,10 @@
         <v>2.938599455335857</v>
       </c>
       <c r="G24">
-        <v>0.77995104199999998</v>
+        <v>0.76154904599999995</v>
       </c>
       <c r="H24">
-        <v>1.0564580750000001</v>
+        <v>0.78188845399999996</v>
       </c>
     </row>
     <row r="25" spans="6:8">
